--- a/figures/features.xlsx
+++ b/figures/features.xlsx
@@ -20,12 +20,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Type</t>
   </si>
   <si>
     <t xml:space="preserve">Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-descriptive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url, 
+Time since publication</t>
   </si>
   <si>
     <t xml:space="preserve">Content</t>
@@ -81,6 +88,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -109,6 +117,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,13 +203,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:C8"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="63.21"/>
@@ -223,7 +232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -231,7 +240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -239,7 +248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="38.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -247,7 +256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -255,12 +264,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3" t="s">
+    <row r="8" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/figures/features.xlsx
+++ b/figures/features.xlsx
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Features</t>
+    <t xml:space="preserve">Feature Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Features</t>
   </si>
   <si>
     <t xml:space="preserve">Non-descriptive</t>
@@ -205,13 +205,13 @@
   </sheetPr>
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="63.21"/>
   </cols>
   <sheetData>

--- a/figures/features.xlsx
+++ b/figures/features.xlsx
@@ -206,7 +206,7 @@
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:C9"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
